--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Constraints for observations recorded in the context of stroke care.</t>
+    <t>Common constraints for Observations captured in the context of stroke care across acute management and follow-up. This profile establishes a consistent minimum dataset and reference structure so that downstream profiles (vital signs, functional scores, timing metrics, onset circumstances, and specific findings) behave uniformly across systems.
+Key modeling intent:
+- Observation.status is fixed to final to indicate recorded results suitable for clinical reporting and analytics.
+- Observation.subject (Patient) and Observation.encounter (index stroke encounter) are mandatory to ensure every observation is attributable to a specific person and care episode.
+- Observation.partOf optionally links the observation to a Procedure (e.g., mechanical thrombectomy) when the observation represents a procedural outcome (e.g., mTICI grade) or a process metric.
+- Observation.effective[x] is optional to accommodate cases where only a phase label is known; when available, effective[x] should be populated to support accurate sequencing and time-based analysis.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,12 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Common constraints for Observations captured in the context of stroke care across acute management and follow-up. This profile establishes a consistent minimum dataset and reference structure so that downstream profiles (vital signs, functional scores, timing metrics, onset circumstances, and specific findings) behave uniformly across systems.
-Key modeling intent:
-- Observation.status is fixed to final to indicate recorded results suitable for clinical reporting and analytics.
-- Observation.subject (Patient) and Observation.encounter (index stroke encounter) are mandatory to ensure every observation is attributable to a specific person and care episode.
-- Observation.partOf optionally links the observation to a Procedure (e.g., mechanical thrombectomy) when the observation represents a procedural outcome (e.g., mTICI grade) or a process metric.
-- Observation.effective[x] is optional to accommodate cases where only a phase label is known; when available, effective[x] should be populated to support accurate sequencing and time-based analysis.</t>
+    <t xml:space="preserve">Common constraints for Observations captured in the context of stroke care across acute management and follow-up.
+This base profile establishes a consistent minimum dataset and reference structure so specialized observation profiles behave uniformly.
+**Key modeling intent**
+- `Observation.status` is fixed to `final` to represent finalized results suitable for reporting and analytics.
+- `Observation.subject` (Patient) and `Observation.encounter` (index stroke encounter) are mandatory for attribution.
+- `Observation.partOf` optionally links the Observation to a Procedure (e.g., thrombectomy) when the Observation represents a procedural outcome (e.g., mTICI).
+- `Observation.effective[x]` is optional to support cases where only a phase label is known; populate when available for sequencing and analysis.
+</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-base-stroke-observation.xlsx
+++ b/StructureDefinition-base-stroke-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
